--- a/vignettes/data_workbook.xlsx
+++ b/vignettes/data_workbook.xlsx
@@ -133,12 +133,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC509EA"/>
+        <fgColor rgb="FFC46B05"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF7A0CA"/>
+        <fgColor rgb="FFABFCBD"/>
       </patternFill>
     </fill>
   </fills>
@@ -493,7 +493,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF349613"/>
+    <tabColor rgb="FF16AA2E"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
@@ -3088,7 +3088,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF79E0DC"/>
+    <tabColor rgb="FF4566F9"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
